--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce829c3c54d4cdf2/Documents/GitHub/ProtoPCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{D4B3FC48-B88E-4106-A7F4-A201F9534C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D5E81B-F124-4187-BB40-8BDBFA0CCBD8}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{D4B3FC48-B88E-4106-A7F4-A201F9534C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7460FFC-D9AC-46AD-9788-17893015FAAD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CCC10C81-CBAE-4915-9A04-039543FEAF5A}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Part #</t>
   </si>
@@ -81,6 +80,51 @@
   </si>
   <si>
     <t>Pushbuttons</t>
+  </si>
+  <si>
+    <t>From china (20k bulk price with shipping)</t>
+  </si>
+  <si>
+    <t>ATSAMD20E15B-MU</t>
+  </si>
+  <si>
+    <t>Main processer mouser</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>indv. Cost</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Cost per part</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">556-ATSAMD20E15B-MU </t>
+  </si>
+  <si>
+    <t>Total cost/ cost per unit calculator</t>
+  </si>
+  <si>
+    <t>0603 white LED</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>SHIFT REGISTERS</t>
+  </si>
+  <si>
+    <t>RESISTOR</t>
+  </si>
+  <si>
+    <t>BUTTONS</t>
   </si>
 </sst>
 </file>
@@ -439,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362A228C-43E1-4997-AC8F-4C0279D176C2}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +494,12 @@
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -471,8 +518,26 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,8 +557,27 @@
         <f>E2*F2</f>
         <v>1.772</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2.2896000000000001</v>
+      </c>
+      <c r="W2">
+        <f>T2*U2</f>
+        <v>2.2896000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,26 +597,67 @@
         <f>E3*F3</f>
         <v>0.86560000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="W3">
+        <f>T3*U3</f>
+        <v>0.86560000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4">
         <v>256</v>
       </c>
       <c r="F4">
-        <v>8.5000000000000006E-3</v>
+        <v>5.45E-3</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H17" si="0">E4*F4</f>
-        <v>2.1760000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3952</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>256</v>
+      </c>
+      <c r="U4">
+        <v>5.45E-3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W17" si="1">T4*U4</f>
+        <v>1.3952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -549,8 +674,24 @@
         <f t="shared" si="0"/>
         <v>2.8799999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5">
+        <v>16</v>
+      </c>
+      <c r="U5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -567,8 +708,24 @@
         <f t="shared" si="0"/>
         <v>0.1419</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0.1419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -576,8 +733,15 @@
         <f>E7*F7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f>T7*U7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -585,8 +749,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W21" si="2">T8*U8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -603,8 +774,24 @@
         <f t="shared" si="0"/>
         <v>1.0960000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>1.0960000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -612,8 +799,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -621,8 +815,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -630,8 +831,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -639,8 +847,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -648,8 +863,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -657,8 +879,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -666,22 +895,269 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
       <c r="H17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
       <c r="H21">
         <f>SUM(H2:H17)</f>
-        <v>6.0803000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+        <v>5.2995000000000001</v>
+      </c>
+      <c r="W21">
+        <f>SUM(W2:W17)</f>
+        <v>5.8170999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>1.97</v>
+      </c>
+      <c r="G36">
+        <v>7.99</v>
+      </c>
+      <c r="I36">
+        <f>((F36*E36)+G36)/E36</f>
+        <v>2.2896000000000001</v>
+      </c>
+      <c r="J36">
+        <f>(F36*E36)+G36</f>
+        <v>57.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>20000</v>
+      </c>
+      <c r="F37">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G37">
+        <v>39</v>
+      </c>
+      <c r="I37">
+        <f>((F37*E37)+G37)/E37</f>
+        <v>5.45E-3</v>
+      </c>
+      <c r="J37">
+        <f>(F37*E37)+G37</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="e">
+        <f>((F38*E38)+G38)/E38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38">
+        <f>(F38*E38)+G38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="e">
+        <f>((F39*E39)+G39)/E39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39">
+        <f>(F39*E39)+G39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="e">
+        <f>((F40*E40)+G40)/E40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40">
+        <f>(F40*E40)+G40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="e">
+        <f>((F41*E41)+G41)/E41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41">
+        <f>(F41*E41)+G41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="I42" t="e">
+        <f>((F42*E42)+G42)/E42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42">
+        <f>(F42*E42)+G42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="I43" t="e">
+        <f>((F43*E43)+G43)/E43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43">
+        <f>(F43*E43)+G43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="I44" t="e">
+        <f>((F44*E44)+G44)/E44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44">
+        <f>(F44*E44)+G44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="I45" t="e">
+        <f>((F45*E45)+G45)/E45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45">
+        <f>(F45*E45)+G45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
